--- a/target/test-classes/excel/test_data.xlsx
+++ b/target/test-classes/excel/test_data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="AddCustomerTest" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -17,6 +17,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">firstname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">postcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer added successfully </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,8 +118,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,14 +144,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
